--- a/정리/노다지데이터0527.xlsx
+++ b/정리/노다지데이터0527.xlsx
@@ -309,15 +309,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>투르말린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>터키석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>석류석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투르말린</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W286"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="N103" sqref="N103"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1056,7 +1056,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" ref="P5:P33" si="13">P4*1.2</f>
+        <f>P4*1.2</f>
         <v>17.279999999999998</v>
       </c>
       <c r="Q5">
@@ -1132,7 +1132,7 @@
         <v>21</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="P5:P33" si="13">P5*1.2</f>
         <v>20.735999999999997</v>
       </c>
       <c r="Q6">
@@ -6194,11 +6194,11 @@
         <v>2.760590195145169</v>
       </c>
       <c r="O104">
-        <f t="shared" ref="O103:O113" si="32">(O90-N90)*M90*0.8</f>
+        <f t="shared" ref="O104:O113" si="32">(O90-N90)*M90*0.8</f>
         <v>24960</v>
       </c>
       <c r="P104">
-        <f t="shared" ref="P103:P113" si="33">(P90-N90)*M90*0.8</f>
+        <f t="shared" ref="P104:P113" si="33">(P90-N90)*M90*0.8</f>
         <v>12480</v>
       </c>
       <c r="Q104">
@@ -10734,7 +10734,7 @@
   <dimension ref="A1:P115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10794,8 +10794,8 @@
       <c r="D2">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>73</v>
+      <c r="F2" t="s">
+        <v>63</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -10821,8 +10821,8 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>72</v>
+      <c r="F3" t="s">
+        <v>64</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -10851,8 +10851,8 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>71</v>
+      <c r="F4" t="s">
+        <v>65</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -10881,8 +10881,8 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
-        <v>70</v>
+      <c r="F5" t="s">
+        <v>72</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -10911,8 +10911,8 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="G6" t="s">
-        <v>67</v>
+      <c r="F6" t="s">
+        <v>71</v>
       </c>
       <c r="K6">
         <v>4</v>
@@ -10941,11 +10941,8 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" t="s">
-        <v>66</v>
+      <c r="F7" t="s">
+        <v>73</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -10974,8 +10971,8 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="G8" t="s">
-        <v>68</v>
+      <c r="F8" t="s">
+        <v>70</v>
       </c>
       <c r="K8">
         <v>6</v>
@@ -11004,8 +11001,8 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="G9" t="s">
-        <v>69</v>
+      <c r="F9" t="s">
+        <v>67</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -11034,8 +11031,11 @@
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K10">
         <v>8</v>
@@ -11064,8 +11064,8 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="G11" t="s">
-        <v>60</v>
+      <c r="F11" t="s">
+        <v>68</v>
       </c>
       <c r="K11">
         <v>9</v>
@@ -11095,10 +11095,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -11128,13 +11125,7 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="K13">
         <v>11</v>
@@ -11152,10 +11143,7 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K14">
         <v>12</v>
@@ -11172,6 +11160,9 @@
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
       <c r="K15">
         <v>13</v>
       </c>
@@ -11187,6 +11178,12 @@
       <c r="A16">
         <v>14</v>
       </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
       <c r="K16">
         <v>14</v>
       </c>
@@ -11201,6 +11198,9 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
       </c>
       <c r="K17">
         <v>15</v>

--- a/정리/노다지데이터0527.xlsx
+++ b/정리/노다지데이터0527.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,10 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1캐럿 0.5~1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자수정/애미시스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,15 +305,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>투르말린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>터키석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>석류석</t>
+    <t>진주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>투르말린</t>
+    <t>알바</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E19" workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -10733,15 +10733,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
     <col min="14" max="14" width="18.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -10762,6 +10763,9 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
@@ -10794,9 +10798,6 @@
       <c r="D2">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
       <c r="K2">
         <v>0</v>
       </c>
@@ -10821,8 +10822,8 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>64</v>
+      <c r="B3" t="s">
+        <v>65</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -10851,8 +10852,8 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>65</v>
+      <c r="B4" t="s">
+        <v>72</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -10881,8 +10882,8 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>72</v>
+      <c r="B5" t="s">
+        <v>70</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -10911,8 +10912,8 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
-        <v>71</v>
+      <c r="B6" t="s">
+        <v>69</v>
       </c>
       <c r="K6">
         <v>4</v>
@@ -10941,8 +10942,8 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
-        <v>73</v>
+      <c r="B7" t="s">
+        <v>71</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -10971,8 +10972,8 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
-        <v>70</v>
+      <c r="B8" t="s">
+        <v>66</v>
       </c>
       <c r="K8">
         <v>6</v>
@@ -11001,8 +11002,8 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="F9" t="s">
-        <v>67</v>
+      <c r="B9" t="s">
+        <v>57</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -11031,11 +11032,8 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" t="s">
-        <v>66</v>
+      <c r="B10" t="s">
+        <v>63</v>
       </c>
       <c r="K10">
         <v>8</v>
@@ -11064,8 +11062,8 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
-        <v>68</v>
+      <c r="B11" t="s">
+        <v>67</v>
       </c>
       <c r="K11">
         <v>9</v>
@@ -11094,8 +11092,8 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="F12" t="s">
-        <v>69</v>
+      <c r="B12" t="s">
+        <v>58</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -11124,8 +11122,8 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="F13" t="s">
-        <v>58</v>
+      <c r="B13" t="s">
+        <v>59</v>
       </c>
       <c r="K13">
         <v>11</v>
@@ -11142,8 +11140,8 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="F14" t="s">
-        <v>60</v>
+      <c r="B14" t="s">
+        <v>61</v>
       </c>
       <c r="K14">
         <v>12</v>
@@ -11160,8 +11158,8 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="F15" t="s">
-        <v>61</v>
+      <c r="B15" t="s">
+        <v>60</v>
       </c>
       <c r="K15">
         <v>13</v>
@@ -11178,11 +11176,8 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
+      <c r="B16" t="s">
+        <v>68</v>
       </c>
       <c r="K16">
         <v>14</v>
@@ -11199,8 +11194,8 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="F17" t="s">
-        <v>62</v>
+      <c r="B17" t="s">
+        <v>64</v>
       </c>
       <c r="K17">
         <v>15</v>
@@ -11217,6 +11212,9 @@
       <c r="A18">
         <v>16</v>
       </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
       <c r="K18">
         <v>16</v>
       </c>
@@ -12443,5 +12441,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>